--- a/data/Data_RDM Websites.xlsx
+++ b/data/Data_RDM Websites.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Ongoing Papers\2024_AGILE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\degbelo\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F490F85F-EAE5-4183-A5D0-E39C7B77A830}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{058C09AD-8562-448F-9A05-55B159529177}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{CA9FA542-43BB-4978-9F80-BF09DF698724}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="119">
   <si>
     <t>Partner</t>
   </si>
@@ -375,9 +375,6 @@
     <t xml:space="preserve">Forschungszentrum Jülich </t>
   </si>
   <si>
-    <t>Johann Wolfgang Goethe-Universität Frankfurt am Main</t>
-  </si>
-  <si>
     <t>Marum (Universität Bremen)</t>
   </si>
   <si>
@@ -393,7 +390,10 @@
     <t>Forschungszentrum Jülich</t>
   </si>
   <si>
-    <t>Universitätsbibliothek Johann Christian Senckenberg</t>
+    <t>Friedrich-Alexander-Universität Erlangen-Nürnberg</t>
+  </si>
+  <si>
+    <t>https://www.cdi.fau.de/en/informationen/glossary/</t>
   </si>
 </sst>
 </file>
@@ -792,10 +792,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6488343-B3F2-46D2-95BB-ECA2DCEC207C}">
-  <dimension ref="A1:D74"/>
+  <dimension ref="A1:D72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="C45" sqref="C45"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="A44" sqref="A44:XFD44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1103,13 +1103,13 @@
         <v>81</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>34</v>
+        <v>117</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="D22" t="s">
-        <v>33</v>
+        <v>117</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
@@ -1246,7 +1246,7 @@
         <v>51</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D32" t="s">
         <v>37</v>
@@ -1330,7 +1330,7 @@
         <v>56</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D38" t="s">
         <v>66</v>
@@ -1344,7 +1344,7 @@
         <v>57</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D39" t="s">
         <v>67</v>
@@ -1372,7 +1372,7 @@
         <v>58</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D41" t="s">
         <v>35</v>
@@ -1411,27 +1411,27 @@
         <v>82</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>118</v>
+        <v>62</v>
       </c>
       <c r="D44" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A45" s="5" t="s">
-        <v>82</v>
+      <c r="A45" s="6" t="s">
+        <v>83</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="D45" t="s">
-        <v>35</v>
+        <v>65</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
@@ -1439,13 +1439,13 @@
         <v>83</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>84</v>
+        <v>40</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>84</v>
+        <v>40</v>
       </c>
       <c r="D46" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
@@ -1453,13 +1453,13 @@
         <v>83</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>40</v>
+        <v>91</v>
       </c>
       <c r="D47" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
@@ -1467,13 +1467,13 @@
         <v>83</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>91</v>
+        <v>52</v>
       </c>
       <c r="D48" t="s">
-        <v>29</v>
+        <v>63</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
@@ -1481,55 +1481,55 @@
         <v>83</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>52</v>
+        <v>86</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>52</v>
+        <v>86</v>
       </c>
       <c r="D49" t="s">
-        <v>63</v>
+        <v>21</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="B50" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>86</v>
+      <c r="B50" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>87</v>
       </c>
       <c r="D50" t="s">
-        <v>21</v>
+        <v>69</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="B51" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>87</v>
+      <c r="B51" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>107</v>
       </c>
       <c r="D51" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="B52" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>107</v>
+      <c r="B52" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>89</v>
       </c>
       <c r="D52" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
@@ -1537,27 +1537,27 @@
         <v>83</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>34</v>
+        <v>90</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="D53" t="s">
-        <v>33</v>
+        <v>72</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="B54" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>89</v>
+      <c r="B54" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="D54" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
@@ -1565,13 +1565,13 @@
         <v>83</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>90</v>
+        <v>14</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>90</v>
+        <v>116</v>
       </c>
       <c r="D55" t="s">
-        <v>72</v>
+        <v>13</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
@@ -1579,13 +1579,13 @@
         <v>83</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="D56" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
@@ -1593,41 +1593,41 @@
         <v>83</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="D57" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="B58" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>44</v>
+      <c r="B58" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>103</v>
       </c>
       <c r="D58" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="B59" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>110</v>
+      <c r="B59" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>104</v>
       </c>
       <c r="D59" t="s">
-        <v>15</v>
+        <v>74</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
@@ -1635,13 +1635,13 @@
         <v>83</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D60" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
@@ -1649,41 +1649,41 @@
         <v>83</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D61" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="B62" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>102</v>
+      <c r="B62" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="D62" t="s">
-        <v>75</v>
+        <v>19</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="B63" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>101</v>
+      <c r="B63" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="D63" t="s">
-        <v>76</v>
+        <v>25</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
@@ -1691,27 +1691,27 @@
         <v>83</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>20</v>
+        <v>93</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>20</v>
+        <v>93</v>
       </c>
       <c r="D64" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="B65" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>92</v>
+      <c r="B65" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>98</v>
       </c>
       <c r="D65" t="s">
-        <v>25</v>
+        <v>77</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
@@ -1719,13 +1719,13 @@
         <v>83</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D66" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
@@ -1733,13 +1733,13 @@
         <v>83</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D67" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
@@ -1747,27 +1747,27 @@
         <v>83</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>94</v>
+        <v>42</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>94</v>
+        <v>42</v>
       </c>
       <c r="D68" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="B69" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>97</v>
+      <c r="B69" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>95</v>
       </c>
       <c r="D69" t="s">
-        <v>78</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
@@ -1775,13 +1775,13 @@
         <v>83</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D70" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
@@ -1789,54 +1789,26 @@
         <v>83</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>95</v>
+        <v>44</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>95</v>
+        <v>44</v>
       </c>
       <c r="D71" t="s">
-        <v>1</v>
+        <v>43</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="B72" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>40</v>
+      <c r="B72" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>96</v>
       </c>
       <c r="D72" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A73" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D73" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A74" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="B74" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="D74" t="s">
         <v>79</v>
       </c>
     </row>
@@ -1847,12 +1819,13 @@
     <hyperlink ref="D18" r:id="rId3" xr:uid="{7FC0108C-D2BA-4CEF-8A89-BF899496E436}"/>
     <hyperlink ref="D19" r:id="rId4" xr:uid="{944A878E-5F19-40F5-8626-8823A0797FFF}"/>
     <hyperlink ref="D16" r:id="rId5" xr:uid="{59B35908-3114-49C1-B9B3-145458F200B4}"/>
-    <hyperlink ref="D66" r:id="rId6" xr:uid="{57FE84E4-DF2C-46EB-8474-61899EE87BA7}"/>
-    <hyperlink ref="D68" r:id="rId7" xr:uid="{201960D0-BDAF-4E20-A68B-C7C61CA0D063}"/>
+    <hyperlink ref="D64" r:id="rId6" xr:uid="{57FE84E4-DF2C-46EB-8474-61899EE87BA7}"/>
+    <hyperlink ref="D66" r:id="rId7" xr:uid="{201960D0-BDAF-4E20-A68B-C7C61CA0D063}"/>
     <hyperlink ref="D3" r:id="rId8" xr:uid="{E703128F-5CD3-4524-AC89-30D76189E044}"/>
+    <hyperlink ref="D22" r:id="rId9" xr:uid="{3D347F0F-54C0-4F6F-9527-9C4054047D0C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId9"/>
+  <pageSetup orientation="portrait" r:id="rId10"/>
 </worksheet>
 </file>
 
